--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cx3cl1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cx3cl1-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cx3cl1</t>
+  </si>
+  <si>
+    <t>Itgb3</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cx3cl1</t>
-  </si>
-  <si>
-    <t>Itgb3</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.460847999999999</v>
+        <v>7.497562666666666</v>
       </c>
       <c r="H2">
-        <v>16.382544</v>
+        <v>22.492688</v>
       </c>
       <c r="I2">
-        <v>0.4472616033121704</v>
+        <v>0.528029920342038</v>
       </c>
       <c r="J2">
-        <v>0.4472616033121705</v>
+        <v>0.528029920342038</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N2">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O2">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P2">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q2">
-        <v>11.42569040389867</v>
+        <v>55.17335905559822</v>
       </c>
       <c r="R2">
-        <v>102.831213635088</v>
+        <v>496.560231500384</v>
       </c>
       <c r="S2">
-        <v>0.05536953385681274</v>
+        <v>0.2081357494408435</v>
       </c>
       <c r="T2">
-        <v>0.05536953385681274</v>
+        <v>0.2081357494408436</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.460847999999999</v>
+        <v>7.497562666666666</v>
       </c>
       <c r="H3">
-        <v>16.382544</v>
+        <v>22.492688</v>
       </c>
       <c r="I3">
-        <v>0.4472616033121704</v>
+        <v>0.528029920342038</v>
       </c>
       <c r="J3">
-        <v>0.4472616033121705</v>
+        <v>0.528029920342038</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.405096</v>
       </c>
       <c r="O3">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P3">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q3">
-        <v>13.47936789380267</v>
+        <v>18.50672377089422</v>
       </c>
       <c r="R3">
-        <v>121.314311044224</v>
+        <v>166.560513938048</v>
       </c>
       <c r="S3">
-        <v>0.06532176967701431</v>
+        <v>0.06981468751736088</v>
       </c>
       <c r="T3">
-        <v>0.06532176967701432</v>
+        <v>0.06981468751736089</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.460847999999999</v>
+        <v>7.497562666666666</v>
       </c>
       <c r="H4">
-        <v>16.382544</v>
+        <v>22.492688</v>
       </c>
       <c r="I4">
-        <v>0.4472616033121704</v>
+        <v>0.528029920342038</v>
       </c>
       <c r="J4">
-        <v>0.4472616033121705</v>
+        <v>0.528029920342038</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N4">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O4">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P4">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q4">
-        <v>1.72527301288</v>
+        <v>3.172716102590222</v>
       </c>
       <c r="R4">
-        <v>15.52745711592</v>
+        <v>28.55444492331199</v>
       </c>
       <c r="S4">
-        <v>0.008360769382155553</v>
+        <v>0.01196874098439806</v>
       </c>
       <c r="T4">
-        <v>0.008360769382155553</v>
+        <v>0.01196874098439806</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.460847999999999</v>
+        <v>7.497562666666666</v>
       </c>
       <c r="H5">
-        <v>16.382544</v>
+        <v>22.492688</v>
       </c>
       <c r="I5">
-        <v>0.4472616033121704</v>
+        <v>0.528029920342038</v>
       </c>
       <c r="J5">
-        <v>0.4472616033121705</v>
+        <v>0.528029920342038</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N5">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O5">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P5">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q5">
-        <v>1.431193606101333</v>
+        <v>1.001419455136</v>
       </c>
       <c r="R5">
-        <v>12.880742454912</v>
+        <v>9.012775096223999</v>
       </c>
       <c r="S5">
-        <v>0.006935644151677865</v>
+        <v>0.003777750573231119</v>
       </c>
       <c r="T5">
-        <v>0.006935644151677866</v>
+        <v>0.00377775057323112</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.460847999999999</v>
+        <v>7.497562666666666</v>
       </c>
       <c r="H6">
-        <v>16.382544</v>
+        <v>22.492688</v>
       </c>
       <c r="I6">
-        <v>0.4472616033121704</v>
+        <v>0.528029920342038</v>
       </c>
       <c r="J6">
-        <v>0.4472616033121705</v>
+        <v>0.528029920342038</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N6">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O6">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P6">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q6">
-        <v>61.66272699452799</v>
+        <v>60.6792266893031</v>
       </c>
       <c r="R6">
-        <v>554.9645429507519</v>
+        <v>546.1130402037279</v>
       </c>
       <c r="S6">
-        <v>0.298821019066114</v>
+        <v>0.2289060615240441</v>
       </c>
       <c r="T6">
-        <v>0.298821019066114</v>
+        <v>0.2289060615240441</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.460847999999999</v>
+        <v>7.497562666666666</v>
       </c>
       <c r="H7">
-        <v>16.382544</v>
+        <v>22.492688</v>
       </c>
       <c r="I7">
-        <v>0.4472616033121704</v>
+        <v>0.528029920342038</v>
       </c>
       <c r="J7">
-        <v>0.4472616033121705</v>
+        <v>0.528029920342038</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N7">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O7">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P7">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q7">
-        <v>2.569691220250667</v>
+        <v>1.438589838291556</v>
       </c>
       <c r="R7">
-        <v>23.127220982256</v>
+        <v>12.947308544624</v>
       </c>
       <c r="S7">
-        <v>0.01245286717839599</v>
+        <v>0.005426930302160272</v>
       </c>
       <c r="T7">
-        <v>0.01245286717839599</v>
+        <v>0.005426930302160272</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>15.507426</v>
       </c>
       <c r="I8">
-        <v>0.4233699122678894</v>
+        <v>0.3640465254970882</v>
       </c>
       <c r="J8">
-        <v>0.4233699122678894</v>
+        <v>0.3640465254970882</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N8">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O8">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P8">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q8">
-        <v>10.81535617651133</v>
+        <v>38.03888546918533</v>
       </c>
       <c r="R8">
-        <v>97.33820558860201</v>
+        <v>342.349969222668</v>
       </c>
       <c r="S8">
-        <v>0.05241182010187295</v>
+        <v>0.1434977327924712</v>
       </c>
       <c r="T8">
-        <v>0.05241182010187297</v>
+        <v>0.1434977327924712</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>15.507426</v>
       </c>
       <c r="I9">
-        <v>0.4233699122678894</v>
+        <v>0.3640465254970882</v>
       </c>
       <c r="J9">
-        <v>0.4233699122678894</v>
+        <v>0.3640465254970882</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>7.405096</v>
       </c>
       <c r="O9">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P9">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q9">
         <v>12.75933091587733</v>
@@ -1013,10 +1013,10 @@
         <v>114.833978242896</v>
       </c>
       <c r="S9">
-        <v>0.06183243026573549</v>
+        <v>0.04813324669726435</v>
       </c>
       <c r="T9">
-        <v>0.0618324302657355</v>
+        <v>0.04813324669726437</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>15.507426</v>
       </c>
       <c r="I10">
-        <v>0.4233699122678894</v>
+        <v>0.3640465254970882</v>
       </c>
       <c r="J10">
-        <v>0.4233699122678894</v>
+        <v>0.3640465254970882</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N10">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O10">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P10">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q10">
-        <v>1.63311287777</v>
+        <v>2.187406866619333</v>
       </c>
       <c r="R10">
-        <v>14.69801589993</v>
+        <v>19.686661799574</v>
       </c>
       <c r="S10">
-        <v>0.007914156219988968</v>
+        <v>0.008251764534711015</v>
       </c>
       <c r="T10">
-        <v>0.00791415621998897</v>
+        <v>0.008251764534711017</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>15.507426</v>
       </c>
       <c r="I11">
-        <v>0.4233699122678894</v>
+        <v>0.3640465254970882</v>
       </c>
       <c r="J11">
-        <v>0.4233699122678894</v>
+        <v>0.3640465254970882</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N11">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O11">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P11">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q11">
-        <v>1.354742519738667</v>
+        <v>0.6904216203719999</v>
       </c>
       <c r="R11">
-        <v>12.192682677648</v>
+        <v>6.213794583348</v>
       </c>
       <c r="S11">
-        <v>0.006565157917138954</v>
+        <v>0.002604543639285761</v>
       </c>
       <c r="T11">
-        <v>0.006565157917138955</v>
+        <v>0.002604543639285761</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -1169,10 +1169,10 @@
         <v>15.507426</v>
       </c>
       <c r="I12">
-        <v>0.4233699122678894</v>
+        <v>0.3640465254970882</v>
       </c>
       <c r="J12">
-        <v>0.4233699122678894</v>
+        <v>0.3640465254970882</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N12">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O12">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P12">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q12">
-        <v>58.368845267612</v>
+        <v>41.83486729650066</v>
       </c>
       <c r="R12">
-        <v>525.319607408508</v>
+        <v>376.513805668506</v>
       </c>
       <c r="S12">
-        <v>0.2828586842441779</v>
+        <v>0.1578176787956851</v>
       </c>
       <c r="T12">
-        <v>0.2828586842441779</v>
+        <v>0.1578176787956851</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>15.507426</v>
       </c>
       <c r="I13">
-        <v>0.4233699122678894</v>
+        <v>0.3640465254970882</v>
       </c>
       <c r="J13">
-        <v>0.4233699122678894</v>
+        <v>0.3640465254970882</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N13">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O13">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P13">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q13">
-        <v>2.432424197419333</v>
+        <v>0.9918256751553334</v>
       </c>
       <c r="R13">
-        <v>21.891817776774</v>
+        <v>8.926431076398</v>
       </c>
       <c r="S13">
-        <v>0.01178766351897511</v>
+        <v>0.003741559037670734</v>
       </c>
       <c r="T13">
-        <v>0.01178766351897511</v>
+        <v>0.003741559037670735</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.07054933333333334</v>
+        <v>1.489352666666667</v>
       </c>
       <c r="H14">
-        <v>0.211648</v>
+        <v>4.468058</v>
       </c>
       <c r="I14">
-        <v>0.005778224909257943</v>
+        <v>0.1048904563929223</v>
       </c>
       <c r="J14">
-        <v>0.005778224909257943</v>
+        <v>0.1048904563929223</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N14">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O14">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P14">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q14">
-        <v>0.1476098292551111</v>
+        <v>10.95990698467156</v>
       </c>
       <c r="R14">
-        <v>1.328488463296</v>
+        <v>98.639162862044</v>
       </c>
       <c r="S14">
-        <v>0.0007153254770276646</v>
+        <v>0.04134510736889947</v>
       </c>
       <c r="T14">
-        <v>0.0007153254770276646</v>
+        <v>0.04134510736889947</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.07054933333333334</v>
+        <v>1.489352666666667</v>
       </c>
       <c r="H15">
-        <v>0.211648</v>
+        <v>4.468058</v>
       </c>
       <c r="I15">
-        <v>0.005778224909257943</v>
+        <v>0.1048904563929223</v>
       </c>
       <c r="J15">
-        <v>0.005778224909257943</v>
+        <v>0.1048904563929223</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>7.405096</v>
       </c>
       <c r="O15">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P15">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q15">
-        <v>0.1741415286897778</v>
+        <v>3.676266491507556</v>
       </c>
       <c r="R15">
-        <v>1.567273758208</v>
+        <v>33.086398423568</v>
       </c>
       <c r="S15">
-        <v>0.0008438995743640749</v>
+        <v>0.01386833237003263</v>
       </c>
       <c r="T15">
-        <v>0.0008438995743640747</v>
+        <v>0.01386833237003263</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.07054933333333334</v>
+        <v>1.489352666666667</v>
       </c>
       <c r="H16">
-        <v>0.211648</v>
+        <v>4.468058</v>
       </c>
       <c r="I16">
-        <v>0.005778224909257943</v>
+        <v>0.1048904563929223</v>
       </c>
       <c r="J16">
-        <v>0.005778224909257943</v>
+        <v>0.1048904563929223</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N16">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O16">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P16">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q16">
-        <v>0.02228900362666667</v>
+        <v>0.6302439069935556</v>
       </c>
       <c r="R16">
-        <v>0.20060103264</v>
+        <v>5.672195162942</v>
       </c>
       <c r="S16">
-        <v>0.0001080137564833922</v>
+        <v>0.002377529484482585</v>
       </c>
       <c r="T16">
-        <v>0.0001080137564833922</v>
+        <v>0.002377529484482585</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.07054933333333334</v>
+        <v>1.489352666666667</v>
       </c>
       <c r="H17">
-        <v>0.211648</v>
+        <v>4.468058</v>
       </c>
       <c r="I17">
-        <v>0.005778224909257943</v>
+        <v>0.1048904563929223</v>
       </c>
       <c r="J17">
-        <v>0.005778224909257943</v>
+        <v>0.1048904563929223</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N17">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O17">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P17">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q17">
-        <v>0.01848975741155556</v>
+        <v>0.198926878276</v>
       </c>
       <c r="R17">
-        <v>0.166407816704</v>
+        <v>1.790341904484</v>
       </c>
       <c r="S17">
-        <v>8.960239712552074E-05</v>
+        <v>0.000750430925406954</v>
       </c>
       <c r="T17">
-        <v>8.960239712552073E-05</v>
+        <v>0.000750430925406954</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.07054933333333334</v>
+        <v>1.489352666666667</v>
       </c>
       <c r="H18">
-        <v>0.211648</v>
+        <v>4.468058</v>
       </c>
       <c r="I18">
-        <v>0.005778224909257943</v>
+        <v>0.1048904563929223</v>
       </c>
       <c r="J18">
-        <v>0.005778224909257943</v>
+        <v>0.1048904563929223</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N18">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O18">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P18">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q18">
-        <v>0.7966279744426668</v>
+        <v>12.05361956929978</v>
       </c>
       <c r="R18">
-        <v>7.169651769984</v>
+        <v>108.482576123698</v>
       </c>
       <c r="S18">
-        <v>0.003860503658241656</v>
+        <v>0.0454710241586509</v>
       </c>
       <c r="T18">
-        <v>0.003860503658241656</v>
+        <v>0.04547102415865091</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.07054933333333334</v>
+        <v>1.489352666666667</v>
       </c>
       <c r="H19">
-        <v>0.211648</v>
+        <v>4.468058</v>
       </c>
       <c r="I19">
-        <v>0.005778224909257943</v>
+        <v>0.1048904563929223</v>
       </c>
       <c r="J19">
-        <v>0.005778224909257943</v>
+        <v>0.1048904563929223</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N19">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O19">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P19">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q19">
-        <v>0.03319814110577778</v>
+        <v>0.2857685500148889</v>
       </c>
       <c r="R19">
-        <v>0.298783269952</v>
+        <v>2.571916950134</v>
       </c>
       <c r="S19">
-        <v>0.0001608800460156344</v>
+        <v>0.001078032085449708</v>
       </c>
       <c r="T19">
-        <v>0.0001608800460156344</v>
+        <v>0.001078032085449708</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>1.418642333333333</v>
+        <v>0.04306733333333334</v>
       </c>
       <c r="H20">
-        <v>4.255927</v>
+        <v>0.129202</v>
       </c>
       <c r="I20">
-        <v>0.1161915227329501</v>
+        <v>0.003033097767951612</v>
       </c>
       <c r="J20">
-        <v>0.1161915227329501</v>
+        <v>0.003033097767951612</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N20">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O20">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P20">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q20">
-        <v>2.968214477775445</v>
+        <v>0.3169255865151112</v>
       </c>
       <c r="R20">
-        <v>26.713930299979</v>
+        <v>2.852330278636</v>
       </c>
       <c r="S20">
-        <v>0.01438413314309569</v>
+        <v>0.001195568759912371</v>
       </c>
       <c r="T20">
-        <v>0.01438413314309569</v>
+        <v>0.001195568759912371</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>1.418642333333333</v>
+        <v>0.04306733333333334</v>
       </c>
       <c r="H21">
-        <v>4.255927</v>
+        <v>0.129202</v>
       </c>
       <c r="I21">
-        <v>0.1161915227329501</v>
+        <v>0.003033097767951612</v>
       </c>
       <c r="J21">
-        <v>0.1161915227329501</v>
+        <v>0.003033097767951612</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>7.405096</v>
       </c>
       <c r="O21">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P21">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q21">
-        <v>3.501727555999111</v>
+        <v>0.1063059125991111</v>
       </c>
       <c r="R21">
-        <v>31.515548003992</v>
+        <v>0.9567532133920001</v>
       </c>
       <c r="S21">
-        <v>0.01696956731849379</v>
+        <v>0.000401027981031794</v>
       </c>
       <c r="T21">
-        <v>0.01696956731849379</v>
+        <v>0.0004010279810317941</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>1.418642333333333</v>
+        <v>0.04306733333333334</v>
       </c>
       <c r="H22">
-        <v>4.255927</v>
+        <v>0.129202</v>
       </c>
       <c r="I22">
-        <v>0.1161915227329501</v>
+        <v>0.003033097767951612</v>
       </c>
       <c r="J22">
-        <v>0.1161915227329501</v>
+        <v>0.003033097767951612</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N22">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O22">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P22">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q22">
-        <v>0.4481987655816667</v>
+        <v>0.01822464553311111</v>
       </c>
       <c r="R22">
-        <v>4.033788890235</v>
+        <v>0.164021809798</v>
       </c>
       <c r="S22">
-        <v>0.002171996251271423</v>
+        <v>6.875057675037319E-05</v>
       </c>
       <c r="T22">
-        <v>0.002171996251271423</v>
+        <v>6.87505767503732E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>1.418642333333333</v>
+        <v>0.04306733333333334</v>
       </c>
       <c r="H23">
-        <v>4.255927</v>
+        <v>0.129202</v>
       </c>
       <c r="I23">
-        <v>0.1161915227329501</v>
+        <v>0.003033097767951612</v>
       </c>
       <c r="J23">
-        <v>0.1161915227329501</v>
+        <v>0.003033097767951612</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N23">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O23">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P23">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q23">
-        <v>0.3718015657662223</v>
+        <v>0.005752331444</v>
       </c>
       <c r="R23">
-        <v>3.346214091896</v>
+        <v>0.051770982996</v>
       </c>
       <c r="S23">
-        <v>0.001801771153950078</v>
+        <v>2.170007113256571E-05</v>
       </c>
       <c r="T23">
-        <v>0.001801771153950078</v>
+        <v>2.170007113256571E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
         <v>27</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>1.418642333333333</v>
+        <v>0.04306733333333334</v>
       </c>
       <c r="H24">
-        <v>4.255927</v>
+        <v>0.129202</v>
       </c>
       <c r="I24">
-        <v>0.1161915227329501</v>
+        <v>0.003033097767951612</v>
       </c>
       <c r="J24">
-        <v>0.1161915227329501</v>
+        <v>0.003033097767951612</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N24">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O24">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P24">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q24">
-        <v>16.01900563854067</v>
+        <v>0.3485522693735556</v>
       </c>
       <c r="R24">
-        <v>144.171050746866</v>
+        <v>3.136970424362</v>
       </c>
       <c r="S24">
-        <v>0.07762899603449802</v>
+        <v>0.00131487712633677</v>
       </c>
       <c r="T24">
-        <v>0.07762899603449802</v>
+        <v>0.00131487712633677</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>1.418642333333333</v>
+        <v>0.04306733333333334</v>
       </c>
       <c r="H25">
-        <v>4.255927</v>
+        <v>0.129202</v>
       </c>
       <c r="I25">
-        <v>0.1161915227329501</v>
+        <v>0.003033097767951612</v>
       </c>
       <c r="J25">
-        <v>0.1161915227329501</v>
+        <v>0.003033097767951612</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N25">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O25">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P25">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q25">
-        <v>0.6675653211081112</v>
+        <v>0.008263515871777779</v>
       </c>
       <c r="R25">
-        <v>6.008087889973</v>
+        <v>0.07437164284600001</v>
       </c>
       <c r="S25">
-        <v>0.003235058831641124</v>
+        <v>3.117325278773758E-05</v>
       </c>
       <c r="T25">
-        <v>0.003235058831641125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.090335</v>
-      </c>
-      <c r="H26">
-        <v>0.271005</v>
-      </c>
-      <c r="I26">
-        <v>0.007398736777732125</v>
-      </c>
-      <c r="J26">
-        <v>0.007398736777732125</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>2.092292333333333</v>
-      </c>
-      <c r="N26">
-        <v>6.276877000000001</v>
-      </c>
-      <c r="O26">
-        <v>0.1237967521619938</v>
-      </c>
-      <c r="P26">
-        <v>0.1237967521619938</v>
-      </c>
-      <c r="Q26">
-        <v>0.1890072279316667</v>
-      </c>
-      <c r="R26">
-        <v>1.701065051385</v>
-      </c>
-      <c r="S26">
-        <v>0.0009159395831847322</v>
-      </c>
-      <c r="T26">
-        <v>0.0009159395831847323</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G27">
-        <v>0.090335</v>
-      </c>
-      <c r="H27">
-        <v>0.271005</v>
-      </c>
-      <c r="I27">
-        <v>0.007398736777732125</v>
-      </c>
-      <c r="J27">
-        <v>0.007398736777732125</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>2.468365333333333</v>
-      </c>
-      <c r="N27">
-        <v>7.405096</v>
-      </c>
-      <c r="O27">
-        <v>0.1460482393151517</v>
-      </c>
-      <c r="P27">
-        <v>0.1460482393151517</v>
-      </c>
-      <c r="Q27">
-        <v>0.2229797823866667</v>
-      </c>
-      <c r="R27">
-        <v>2.00681804148</v>
-      </c>
-      <c r="S27">
-        <v>0.001080572479544036</v>
-      </c>
-      <c r="T27">
-        <v>0.001080572479544036</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G28">
-        <v>0.090335</v>
-      </c>
-      <c r="H28">
-        <v>0.271005</v>
-      </c>
-      <c r="I28">
-        <v>0.007398736777732125</v>
-      </c>
-      <c r="J28">
-        <v>0.007398736777732125</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>0.315935</v>
-      </c>
-      <c r="N28">
-        <v>0.947805</v>
-      </c>
-      <c r="O28">
-        <v>0.01869324198688273</v>
-      </c>
-      <c r="P28">
-        <v>0.01869324198688273</v>
-      </c>
-      <c r="Q28">
-        <v>0.028539988225</v>
-      </c>
-      <c r="R28">
-        <v>0.256859894025</v>
-      </c>
-      <c r="S28">
-        <v>0.0001383063769833956</v>
-      </c>
-      <c r="T28">
-        <v>0.0001383063769833956</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G29">
-        <v>0.090335</v>
-      </c>
-      <c r="H29">
-        <v>0.271005</v>
-      </c>
-      <c r="I29">
-        <v>0.007398736777732125</v>
-      </c>
-      <c r="J29">
-        <v>0.007398736777732125</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>0.2620826666666667</v>
-      </c>
-      <c r="N29">
-        <v>0.7862480000000001</v>
-      </c>
-      <c r="O29">
-        <v>0.01550690714408826</v>
-      </c>
-      <c r="P29">
-        <v>0.01550690714408826</v>
-      </c>
-      <c r="Q29">
-        <v>0.02367523769333333</v>
-      </c>
-      <c r="R29">
-        <v>0.21307713924</v>
-      </c>
-      <c r="S29">
-        <v>0.0001147315241958428</v>
-      </c>
-      <c r="T29">
-        <v>0.0001147315241958428</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G30">
-        <v>0.090335</v>
-      </c>
-      <c r="H30">
-        <v>0.271005</v>
-      </c>
-      <c r="I30">
-        <v>0.007398736777732125</v>
-      </c>
-      <c r="J30">
-        <v>0.007398736777732125</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>11.291786</v>
-      </c>
-      <c r="N30">
-        <v>33.875358</v>
-      </c>
-      <c r="O30">
-        <v>0.6681123907199095</v>
-      </c>
-      <c r="P30">
-        <v>0.6681123907199095</v>
-      </c>
-      <c r="Q30">
-        <v>1.02004348831</v>
-      </c>
-      <c r="R30">
-        <v>9.18039139479</v>
-      </c>
-      <c r="S30">
-        <v>0.004943187716877929</v>
-      </c>
-      <c r="T30">
-        <v>0.004943187716877929</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G31">
-        <v>0.090335</v>
-      </c>
-      <c r="H31">
-        <v>0.271005</v>
-      </c>
-      <c r="I31">
-        <v>0.007398736777732125</v>
-      </c>
-      <c r="J31">
-        <v>0.007398736777732125</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.4705663333333334</v>
-      </c>
-      <c r="N31">
-        <v>1.411699</v>
-      </c>
-      <c r="O31">
-        <v>0.02784246867197405</v>
-      </c>
-      <c r="P31">
-        <v>0.02784246867197405</v>
-      </c>
-      <c r="Q31">
-        <v>0.04250860972166667</v>
-      </c>
-      <c r="R31">
-        <v>0.382577487495</v>
-      </c>
-      <c r="S31">
-        <v>0.0002059990969461889</v>
-      </c>
-      <c r="T31">
-        <v>0.0002059990969461889</v>
+        <v>3.117325278773758E-05</v>
       </c>
     </row>
   </sheetData>
